--- a/spliced/falling/2023-03-25_18-00-50/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-50/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.7543873786926241</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.14622653722763</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.513726615905762</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.284043130278588</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-00-50/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-50/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.200806391239166</v>
+        <v>-3.195676267147064</v>
       </c>
       <c r="B2" t="n">
-        <v>5.102767634391784</v>
+        <v>5.127160429954529</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.615257918834686</v>
+        <v>-1.443197593092918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.029823303222656</v>
+        <v>-3.130342268943787</v>
       </c>
       <c r="B3" t="n">
-        <v>4.992731475830078</v>
+        <v>5.136516356468201</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.61734961271286</v>
+        <v>-1.369547128677368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.210780489444732</v>
+        <v>-3.034864258766174</v>
       </c>
       <c r="B4" t="n">
-        <v>4.921667981147766</v>
+        <v>5.101877164840698</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.72061755657196</v>
+        <v>-1.325036150217056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.178400778770446</v>
+        <v>-3.194309616088868</v>
       </c>
       <c r="B5" t="n">
-        <v>4.880098485946656</v>
+        <v>5.024436473846436</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.040961933135986</v>
+        <v>-1.315180826187134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.949770748615264</v>
+        <v>-3.382834231853486</v>
       </c>
       <c r="B6" t="n">
-        <v>4.483399033546448</v>
+        <v>5.098868799209595</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.752424448728561</v>
+        <v>-1.453447324037552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.990773963928222</v>
+        <v>-3.195986032485962</v>
       </c>
       <c r="B7" t="n">
-        <v>3.945426750183105</v>
+        <v>5.139615774154663</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.259512519836425</v>
+        <v>-1.564420849084854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.417937135696412</v>
+        <v>-3.200806391239166</v>
       </c>
       <c r="B8" t="n">
-        <v>3.032041627168654</v>
+        <v>5.102767634391784</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.871768438816071</v>
+        <v>-1.615257918834686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.624590635299682</v>
+        <v>-3.029823303222656</v>
       </c>
       <c r="B9" t="n">
-        <v>1.621185064315797</v>
+        <v>4.992731475830078</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.857953763008118</v>
+        <v>-1.61734961271286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.78539115190506</v>
+        <v>-3.210780489444732</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9871260821819303</v>
+        <v>4.921667981147766</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.25688956975937</v>
+        <v>-1.72061755657196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.853121519088747</v>
+        <v>-3.178400778770446</v>
       </c>
       <c r="B11" t="n">
-        <v>1.529789447784421</v>
+        <v>4.880098485946656</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.259258270263669</v>
+        <v>-2.040961933135986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.505762827396396</v>
+        <v>-2.949770748615264</v>
       </c>
       <c r="B12" t="n">
-        <v>2.339424359798431</v>
+        <v>4.483399033546448</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.088317966461181</v>
+        <v>-2.752424448728561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.640337300300603</v>
+        <v>-2.990773963928222</v>
       </c>
       <c r="B13" t="n">
-        <v>2.568937909603119</v>
+        <v>3.945426750183105</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.338159441947926</v>
+        <v>-3.259512519836425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.888692498207067</v>
+        <v>-3.417937135696412</v>
       </c>
       <c r="B14" t="n">
-        <v>3.055916017293937</v>
+        <v>3.032041627168654</v>
       </c>
       <c r="C14" t="n">
-        <v>1.562532043457024</v>
+        <v>-3.871768438816071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.340934371948248</v>
+        <v>-4.624590635299682</v>
       </c>
       <c r="B15" t="n">
-        <v>5.258101367950443</v>
+        <v>1.621185064315797</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9750384330749563</v>
+        <v>-3.857953763008118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.988028943538676</v>
+        <v>-5.78539115190506</v>
       </c>
       <c r="B16" t="n">
-        <v>6.74178236722947</v>
+        <v>0.9871260821819303</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.390602678060535</v>
+        <v>-4.25688956975937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.14035427570343</v>
+        <v>-5.853121519088747</v>
       </c>
       <c r="B17" t="n">
-        <v>4.595471763610839</v>
+        <v>1.529789447784421</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.538899934291838</v>
+        <v>-5.259258270263669</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.776602447032927</v>
+        <v>-4.505762827396396</v>
       </c>
       <c r="B18" t="n">
-        <v>6.611665058135991</v>
+        <v>2.339424359798431</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.802872997522362</v>
+        <v>-6.088317966461181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.416235065460208</v>
+        <v>-4.640337300300603</v>
       </c>
       <c r="B19" t="n">
-        <v>7.062580394744874</v>
+        <v>2.568937909603119</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.015482711791987</v>
+        <v>-3.338159441947926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.806813323497772</v>
+        <v>-4.888692498207067</v>
       </c>
       <c r="B20" t="n">
-        <v>4.965753030776977</v>
+        <v>3.055916017293937</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01951594352722141</v>
+        <v>1.562532043457024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.340934371948248</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.258101367950443</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9750384330749563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.988028943538676</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.74178236722947</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.390602678060535</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.14035427570343</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.595471763610839</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.538899934291838</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.776602447032927</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.611665058135991</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-5.802872997522362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.416235065460208</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.062580394744874</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.015482711791987</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.806813323497772</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.965753030776977</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.01951594352722141</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>2.194753527641296</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>5.068601727485656</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>-0.7543873786926241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.14622653722763</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.513726615905762</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.284043130278588</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.037818813323974</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.183717918395995</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.269947481155395</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.045576536655426</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.118093979358673</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.376126399636268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.174056196212769</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.255697178840638</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.429987555742264</v>
       </c>
     </row>
   </sheetData>
